--- a/JUGADORES T5.xlsx
+++ b/JUGADORES T5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ACF7F68-1361-44EB-A7BD-E65CE9ADF01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E876F325-9891-4FBC-BC45-A84BA7CBB57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A98060DC-1932-43E6-9169-0378406E7D7E}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>DIV 1</t>
-  </si>
-  <si>
-    <t>DIV 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Rubén Serna</t>
   </si>
@@ -111,12 +105,6 @@
     <t>Jesús Sancho</t>
   </si>
   <si>
-    <t>DIV 3 - A</t>
-  </si>
-  <si>
-    <t>DIV 3 - B</t>
-  </si>
-  <si>
     <t>Miguel Mau</t>
   </si>
   <si>
@@ -136,6 +124,9 @@
   </si>
   <si>
     <t>Leo Garrido</t>
+  </si>
+  <si>
+    <t>Álvaro Monleon</t>
   </si>
 </sst>
 </file>
@@ -487,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3AEB69-7505-4905-87B6-66EA901D9D74}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,55 +493,55 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -558,82 +549,68 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/JUGADORES T5.xlsx
+++ b/JUGADORES T5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bots\pp_consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E876F325-9891-4FBC-BC45-A84BA7CBB57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1374E3BE-D9C7-4FC4-ADB9-A1927CF76C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A98060DC-1932-43E6-9169-0378406E7D7E}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>Jorge Alberola</t>
   </si>
   <si>
-    <t>Alejandro Navarro</t>
-  </si>
-  <si>
     <t>Antonio Calatayud</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>Álvaro Monleon</t>
+  </si>
+  <si>
+    <t>Alex Navarro</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +516,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
